--- a/output/endemo2_population_projections_2018.xlsx
+++ b/output/endemo2_population_projections_2018.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11448596</v>
+        <v>11398589</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7117431</v>
+        <v>7050034</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10534593</v>
+        <v>10610055</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5766686</v>
+        <v>5781190</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82896696</v>
+        <v>82792351</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4834507</v>
+        <v>9762334.200000018</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10633271</v>
+        <v>10741165</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46792043</v>
+        <v>46658447</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64277808</v>
+        <v>122103780.1930661</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4160485</v>
+        <v>4105493</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59877426</v>
+        <v>60483973</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1935631</v>
+        <v>1934379</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>607913</v>
+        <v>602005</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9776358</v>
+        <v>12712971.1031746</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17286043</v>
+        <v>17181084</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8840513</v>
+        <v>8822267</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38521457</v>
+        <v>52375422.33903134</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10289835</v>
+        <v>10291027</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19606783</v>
+        <v>19530631</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2105924</v>
+        <v>2066880</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5446746</v>
+        <v>5443120</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5515461</v>
+        <v>5513130</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10162298</v>
+        <v>10120242</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66432994</v>
+        <v>70634115.31</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5312320</v>
+        <v>5234532.634779379</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8514434</v>
+        <v>8484130</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631455</v>
+        <v>622359</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2113491</v>
+        <v>2075108</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2877013</v>
+        <v>2870324</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7433818</v>
+        <v>7001444</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3400129</v>
+        <v>3843183</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352946</v>
+        <v>348450</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2876128</v>
+        <v>5658982.928571418</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1322148</v>
+        <v>1319133</v>
       </c>
     </row>
   </sheetData>
